--- a/va_facility_data_2025-02-20/St. James VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20James%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/St. James VA Clinic - Facility Data.xlsx"; filename*=UTF-8''St.%20James%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rd59d5b58f68b4b95890c22e60eb57a40"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rc746cf7acf3746fab2d763879c3cb8cf"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R71b0ef2dcdc048edb3e327b8be73f7f2"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R49fcb8482b844326805aadb63c714d75"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Rd44e9b31f1914a7396daaf8713334f89"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R67984b889f0445e1a3294feaa7450d41"/>
   </x:sheets>
 </x:workbook>
 </file>
